--- a/biology/Zoologie/Fadet_elbois/Fadet_elbois.xlsx
+++ b/biology/Zoologie/Fadet_elbois/Fadet_elbois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Coenonympha elbana
 Le Fadet elbois (Coenonympha elbana) est une espèce de lépidoptères de la famille des Nymphalidae et de la sous-famille des Satyrinae.
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Coenonympha elbana a été décrit par Otto Staudinger en 1901[1]..
-Son statut comme espèce à part entière reste controversé[2].
-Noms vernaculaires
-Le Fadet elbois se nomme Elban Heath en anglais[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Coenonympha elbana a été décrit par Otto Staudinger en 1901..
+Son statut comme espèce à part entière reste controversé.
 </t>
         </is>
       </c>
@@ -543,10 +555,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Fadet elbois se nomme Elban Heath en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce petit papillon de couleur orangée à étroite bordure marron présente ocelle noir aveugle à l'apex des antérieures, et une ligne d'ocelles noirs aveugles aux postérieures.
 Le revers est aux antérieures de la même couleur orangée avec à l'apex l'ocelle noir pupillé de blanc cerclé de jaune souligné d'une courte bande blanche irrégulière, et une ornementation caractéristique aux postérieures : une bande postdiscale claire irrégulière et une ligne d'ocelles noirs pupillés de blanc cerclés de jaune.
@@ -554,40 +605,6 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Fadet_elbois</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Fadet_elbois</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en plusieurs générations, de mai à septembre[2].
-Plantes hôtes
-Ses plantes hôtes sont des graminées.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
@@ -609,15 +626,126 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en plusieurs générations, de mai à septembre.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes hôtes sont des graminées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique d'une petite région de l'Ouest de l'Italie comprenant les îles d'Elbe et de Giglio, ainsi que Monte Argentario et les terres continentales environnantes[1],[2].
-Biotope
-Il réside dans les lieux herbus.
-Protection</t>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique d'une petite région de l'Ouest de l'Italie comprenant les îles d'Elbe et de Giglio, ainsi que Monte Argentario et les terres continentales environnantes,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fadet_elbois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les lieux herbus.
+</t>
         </is>
       </c>
     </row>
